--- a/output_4_jobs.xlsx
+++ b/output_4_jobs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,222 +423,134 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.067110523920524</v>
+        <v>0.6157019214285714</v>
       </c>
       <c r="B1" t="n">
-        <v>2.781655639020236</v>
+        <v>0.9709130880952381</v>
       </c>
       <c r="C1" t="n">
-        <v>8.204284481619229</v>
+        <v>0.7622220535714286</v>
       </c>
       <c r="D1" t="n">
-        <v>14.83200775411561</v>
+        <v>26.94573584194843</v>
       </c>
       <c r="E1" t="n">
-        <v>11.079730326732</v>
+        <v>12.54929448466994</v>
       </c>
       <c r="F1" t="n">
-        <v>12.45872981334824</v>
+        <v>14.33388288449431</v>
       </c>
       <c r="G1" t="n">
-        <v>7.207155278587896</v>
+        <v>7.273003301736114</v>
       </c>
       <c r="H1" t="n">
-        <v>1.067110523920524</v>
+        <v>1.048984523809524</v>
       </c>
       <c r="I1" t="n">
-        <v>2.781655639020236</v>
+        <v>1.269963571428571</v>
       </c>
       <c r="J1" t="n">
-        <v>14.02408363135468</v>
+        <v>1.241</v>
       </c>
       <c r="K1" t="n">
-        <v>16.39344262295082</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L1" t="n">
-        <v>16.12903225806452</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="M1" t="n">
-        <v>16.39344262295082</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="N1" t="n">
-        <v>14.28917533098041</v>
+        <v>14.48595015873014</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.060381410210017</v>
+        <v>0.6597366708333334</v>
       </c>
       <c r="B2" t="n">
-        <v>2.747020376412244</v>
+        <v>1.162639086011905</v>
       </c>
       <c r="C2" t="n">
-        <v>8.481004415629899</v>
+        <v>0.7690529375</v>
       </c>
       <c r="D2" t="n">
-        <v>15.10017093873599</v>
+        <v>27.79856641884723</v>
       </c>
       <c r="E2" t="n">
-        <v>12.56157534173458</v>
+        <v>15.49529194210126</v>
       </c>
       <c r="F2" t="n">
-        <v>13.55963579639812</v>
+        <v>19.40009717756897</v>
       </c>
       <c r="G2" t="n">
-        <v>7.629539575235649</v>
+        <v>10.52564151830358</v>
       </c>
       <c r="H2" t="n">
-        <v>1.060381410210017</v>
+        <v>1.083928095238095</v>
       </c>
       <c r="I2" t="n">
-        <v>2.747020376412244</v>
+        <v>1.598935</v>
       </c>
       <c r="J2" t="n">
-        <v>14.54890519429584</v>
+        <v>1.7038</v>
       </c>
       <c r="K2" t="n">
-        <v>16.39344262295082</v>
+        <v>29.41176470588235</v>
       </c>
       <c r="L2" t="n">
-        <v>16.12903225806452</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="M2" t="n">
-        <v>16.39344262295082</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="N2" t="n">
-        <v>15.44947807876824</v>
+        <v>20.14791763492061</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.149943999202552</v>
+        <v>0.5723526511904763</v>
       </c>
       <c r="B3" t="n">
-        <v>2.785041526364829</v>
+        <v>0.9720668488095238</v>
       </c>
       <c r="C3" t="n">
-        <v>8.265495600751583</v>
+        <v>0.7074202321428571</v>
       </c>
       <c r="D3" t="n">
-        <v>15.16170805380273</v>
+        <v>26.73483674779156</v>
       </c>
       <c r="E3" t="n">
-        <v>11.66337921210821</v>
+        <v>11.93964322679816</v>
       </c>
       <c r="F3" t="n">
-        <v>12.88966100560464</v>
+        <v>13.08541059614714</v>
       </c>
       <c r="G3" t="n">
-        <v>7.550761173417717</v>
+        <v>6.765785357222228</v>
       </c>
       <c r="H3" t="n">
-        <v>1.149943999202552</v>
+        <v>1.017085952380952</v>
       </c>
       <c r="I3" t="n">
-        <v>2.785041526364829</v>
+        <v>1.294080476190476</v>
       </c>
       <c r="J3" t="n">
-        <v>15.06702425234423</v>
+        <v>1.2344</v>
       </c>
       <c r="K3" t="n">
-        <v>16.39344262295082</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L3" t="n">
-        <v>16.12903225806452</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="M3" t="n">
-        <v>16.39344262295082</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="N3" t="n">
-        <v>14.99091355468587</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.080071126293996</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.140806180594776</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.392651554434543</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.11988641674861</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12.95811642891591</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13.85202553094425</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.882400777930331</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.080071126293996</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.140806180594776</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16.25309417407057</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16.39344262295082</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16.12903225806452</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16.39344262295082</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15.65981483536061</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.045092161172161</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.600072757382643</v>
-      </c>
-      <c r="C5" t="n">
-        <v>8.056822102770395</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.96303388105795</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10.94902590120929</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12.46340224656604</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.306595485901473</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.045092161172161</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.600072757382643</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14.05072105253134</v>
-      </c>
-      <c r="K5" t="n">
-        <v>16.39344262295082</v>
-      </c>
-      <c r="L5" t="n">
-        <v>16.12903225806452</v>
-      </c>
-      <c r="M5" t="n">
-        <v>16.39344262295082</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14.28091769499154</v>
+        <v>13.85437426984126</v>
       </c>
     </row>
   </sheetData>

--- a/output_4_jobs.xlsx
+++ b/output_4_jobs.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonproject\ICC_new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4550FFAD-1036-431A-A0D0-A82D70E2A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +58,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,152 +360,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.6157019214285714</v>
-      </c>
-      <c r="B1" t="n">
-        <v>0.9709130880952381</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.7622220535714286</v>
-      </c>
-      <c r="D1" t="n">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>0.61570192142857139</v>
+      </c>
+      <c r="B1">
+        <v>0.97091308809523813</v>
+      </c>
+      <c r="C1">
+        <v>0.76222205357142858</v>
+      </c>
+      <c r="D1">
         <v>26.94573584194843</v>
       </c>
-      <c r="E1" t="n">
-        <v>12.54929448466994</v>
-      </c>
-      <c r="F1" t="n">
+      <c r="E1">
+        <v>12.549294484669939</v>
+      </c>
+      <c r="F1">
         <v>14.33388288449431</v>
       </c>
-      <c r="G1" t="n">
-        <v>7.273003301736114</v>
-      </c>
-      <c r="H1" t="n">
-        <v>1.048984523809524</v>
-      </c>
-      <c r="I1" t="n">
-        <v>1.269963571428571</v>
-      </c>
-      <c r="J1" t="n">
-        <v>1.241</v>
-      </c>
-      <c r="K1" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L1" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="M1" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="N1" t="n">
-        <v>14.48595015873014</v>
+      <c r="G1">
+        <v>7.2730033017361144</v>
+      </c>
+      <c r="H1">
+        <v>1.0489845238095239</v>
+      </c>
+      <c r="I1">
+        <v>1.2699635714285711</v>
+      </c>
+      <c r="J1">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="K1">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="L1">
+        <v>27.777777777777779</v>
+      </c>
+      <c r="M1">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="N1">
+        <v>14.485950158730139</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.6597366708333334</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.162639086011905</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7690529375</v>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0.65973667083333343</v>
+      </c>
+      <c r="B2">
+        <v>1.1626390860119049</v>
+      </c>
+      <c r="C2">
+        <v>0.76905293750000003</v>
+      </c>
+      <c r="D2">
         <v>27.79856641884723</v>
       </c>
-      <c r="E2" t="n">
-        <v>15.49529194210126</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>15.495291942101259</v>
+      </c>
+      <c r="F2">
         <v>19.40009717756897</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>10.52564151830358</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>1.083928095238095</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>1.598935</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>1.7038</v>
       </c>
-      <c r="K2" t="n">
-        <v>29.41176470588235</v>
-      </c>
-      <c r="L2" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="M2" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="K2">
+        <v>29.411764705882351</v>
+      </c>
+      <c r="L2">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="M2">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="N2">
         <v>20.14791763492061</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.5723526511904763</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9720668488095238</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.57235265119047629</v>
+      </c>
+      <c r="B3">
+        <v>0.97206684880952376</v>
+      </c>
+      <c r="C3">
         <v>0.7074202321428571</v>
       </c>
-      <c r="D3" t="n">
-        <v>26.73483674779156</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11.93964322679816</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="D3">
+        <v>26.734836747791562</v>
+      </c>
+      <c r="E3">
+        <v>11.939643226798159</v>
+      </c>
+      <c r="F3">
         <v>13.08541059614714</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>6.765785357222228</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.017085952380952</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.294080476190476</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.2344</v>
-      </c>
-      <c r="K3" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L3" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="M3" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="H3">
+        <v>1.0170859523809519</v>
+      </c>
+      <c r="I3">
+        <v>1.2940804761904761</v>
+      </c>
+      <c r="J3">
+        <v>1.2343999999999999</v>
+      </c>
+      <c r="K3">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="L3">
+        <v>27.777777777777779</v>
+      </c>
+      <c r="M3">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="N3">
         <v>13.85437426984126</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>